--- a/Fonts.xlsx
+++ b/Fonts.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17030"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -279,7 +279,26 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -1941,10 +1960,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:R56"/>
+  <dimension ref="C1:R75"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T50" sqref="T50"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="U68" sqref="U68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3590,8 +3609,487 @@
         <v>0F</v>
       </c>
     </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C58" s="1"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2"/>
+      <c r="J58" s="2"/>
+      <c r="K58" s="2"/>
+      <c r="L58" s="2"/>
+      <c r="M58" s="2"/>
+      <c r="N58" s="2"/>
+      <c r="O58" s="2"/>
+      <c r="P58" s="2"/>
+      <c r="Q58" s="2"/>
+      <c r="R58" s="4"/>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C59" s="5"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6">
+        <v>1</v>
+      </c>
+      <c r="F59" s="6">
+        <v>1</v>
+      </c>
+      <c r="G59" s="6"/>
+      <c r="H59" s="6"/>
+      <c r="I59" s="6"/>
+      <c r="J59" s="6"/>
+      <c r="K59" s="6"/>
+      <c r="L59" s="6"/>
+      <c r="M59" s="6"/>
+      <c r="N59" s="6"/>
+      <c r="O59" s="6"/>
+      <c r="P59" s="6"/>
+      <c r="Q59" s="6"/>
+      <c r="R59" s="8"/>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C60" s="5"/>
+      <c r="D60" s="6">
+        <v>1</v>
+      </c>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="6">
+        <v>1</v>
+      </c>
+      <c r="H60" s="6"/>
+      <c r="I60" s="6"/>
+      <c r="J60" s="6"/>
+      <c r="K60" s="6"/>
+      <c r="L60" s="6"/>
+      <c r="M60" s="6"/>
+      <c r="N60" s="6"/>
+      <c r="O60" s="6"/>
+      <c r="P60" s="6"/>
+      <c r="Q60" s="6"/>
+      <c r="R60" s="8"/>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C61" s="5"/>
+      <c r="D61" s="6">
+        <v>1</v>
+      </c>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="6">
+        <v>1</v>
+      </c>
+      <c r="H61" s="6"/>
+      <c r="I61" s="6"/>
+      <c r="J61" s="6"/>
+      <c r="K61" s="6"/>
+      <c r="L61" s="6"/>
+      <c r="M61" s="6"/>
+      <c r="N61" s="6"/>
+      <c r="O61" s="6"/>
+      <c r="P61" s="6"/>
+      <c r="Q61" s="6"/>
+      <c r="R61" s="8"/>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C62" s="5"/>
+      <c r="D62" s="6">
+        <v>1</v>
+      </c>
+      <c r="E62" s="6"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="6">
+        <v>1</v>
+      </c>
+      <c r="H62" s="6"/>
+      <c r="I62" s="6"/>
+      <c r="J62" s="6"/>
+      <c r="K62" s="6"/>
+      <c r="L62" s="6"/>
+      <c r="M62" s="6"/>
+      <c r="N62" s="6"/>
+      <c r="O62" s="6"/>
+      <c r="P62" s="6"/>
+      <c r="Q62" s="6"/>
+      <c r="R62" s="8"/>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C63" s="5"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="6">
+        <v>1</v>
+      </c>
+      <c r="F63" s="6">
+        <v>1</v>
+      </c>
+      <c r="G63" s="6"/>
+      <c r="H63" s="6"/>
+      <c r="I63" s="6"/>
+      <c r="J63" s="6"/>
+      <c r="K63" s="6"/>
+      <c r="L63" s="6"/>
+      <c r="M63" s="6"/>
+      <c r="N63" s="6"/>
+      <c r="O63" s="6"/>
+      <c r="P63" s="6"/>
+      <c r="Q63" s="6"/>
+      <c r="R63" s="8"/>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C64" s="5"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="6"/>
+      <c r="F64" s="6"/>
+      <c r="G64" s="6"/>
+      <c r="H64" s="6"/>
+      <c r="I64" s="6"/>
+      <c r="J64" s="6"/>
+      <c r="K64" s="6"/>
+      <c r="L64" s="6"/>
+      <c r="M64" s="6"/>
+      <c r="N64" s="6"/>
+      <c r="O64" s="6"/>
+      <c r="P64" s="6"/>
+      <c r="Q64" s="6"/>
+      <c r="R64" s="8"/>
+    </row>
+    <row r="65" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C65" s="5"/>
+      <c r="D65" s="6"/>
+      <c r="E65" s="6"/>
+      <c r="F65" s="6"/>
+      <c r="G65" s="6"/>
+      <c r="H65" s="6"/>
+      <c r="I65" s="6">
+        <v>1</v>
+      </c>
+      <c r="J65" s="6">
+        <v>1</v>
+      </c>
+      <c r="K65" s="6">
+        <v>1</v>
+      </c>
+      <c r="L65" s="16">
+        <v>1</v>
+      </c>
+      <c r="M65" s="16">
+        <v>1</v>
+      </c>
+      <c r="N65" s="16">
+        <v>1</v>
+      </c>
+      <c r="O65" s="6"/>
+      <c r="P65" s="6"/>
+      <c r="Q65" s="6"/>
+      <c r="R65" s="8"/>
+    </row>
+    <row r="66" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C66" s="5"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="6"/>
+      <c r="F66" s="6"/>
+      <c r="G66" s="6"/>
+      <c r="H66" s="6">
+        <v>1</v>
+      </c>
+      <c r="I66" s="6"/>
+      <c r="J66" s="6"/>
+      <c r="K66" s="6"/>
+      <c r="L66" s="6"/>
+      <c r="M66" s="6"/>
+      <c r="O66" s="6">
+        <v>1</v>
+      </c>
+      <c r="P66" s="6"/>
+      <c r="Q66" s="6"/>
+      <c r="R66" s="8"/>
+    </row>
+    <row r="67" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C67" s="5"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="6"/>
+      <c r="F67" s="6"/>
+      <c r="G67" s="6"/>
+      <c r="H67" s="6">
+        <v>1</v>
+      </c>
+      <c r="I67" s="6"/>
+      <c r="J67" s="6"/>
+      <c r="K67" s="6"/>
+      <c r="L67" s="6"/>
+      <c r="M67" s="6"/>
+      <c r="O67" s="6"/>
+      <c r="P67" s="6"/>
+      <c r="Q67" s="6"/>
+      <c r="R67" s="8"/>
+    </row>
+    <row r="68" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C68" s="5"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="6"/>
+      <c r="F68" s="6"/>
+      <c r="G68" s="6"/>
+      <c r="H68" s="6">
+        <v>1</v>
+      </c>
+      <c r="I68" s="6"/>
+      <c r="J68" s="6"/>
+      <c r="K68" s="6"/>
+      <c r="L68" s="6"/>
+      <c r="M68" s="6"/>
+      <c r="O68" s="6"/>
+      <c r="P68" s="6"/>
+      <c r="Q68" s="6"/>
+      <c r="R68" s="8"/>
+    </row>
+    <row r="69" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C69" s="5"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="6"/>
+      <c r="F69" s="6"/>
+      <c r="G69" s="6"/>
+      <c r="H69" s="6">
+        <v>1</v>
+      </c>
+      <c r="I69" s="6"/>
+      <c r="J69" s="6"/>
+      <c r="K69" s="6"/>
+      <c r="L69" s="6"/>
+      <c r="M69" s="6"/>
+      <c r="O69" s="6"/>
+      <c r="P69" s="6"/>
+      <c r="Q69" s="6"/>
+      <c r="R69" s="8"/>
+    </row>
+    <row r="70" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C70" s="5"/>
+      <c r="D70" s="6"/>
+      <c r="E70" s="6"/>
+      <c r="F70" s="6"/>
+      <c r="G70" s="6"/>
+      <c r="H70" s="16">
+        <v>1</v>
+      </c>
+      <c r="I70" s="6"/>
+      <c r="J70" s="6"/>
+      <c r="K70" s="6"/>
+      <c r="L70" s="6"/>
+      <c r="M70" s="6"/>
+      <c r="O70" s="6"/>
+      <c r="P70" s="6"/>
+      <c r="Q70" s="6"/>
+      <c r="R70" s="8"/>
+    </row>
+    <row r="71" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C71" s="5"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="6"/>
+      <c r="F71" s="6"/>
+      <c r="G71" s="6"/>
+      <c r="H71" s="16">
+        <v>1</v>
+      </c>
+      <c r="I71" s="6"/>
+      <c r="J71" s="6"/>
+      <c r="K71" s="6"/>
+      <c r="L71" s="6"/>
+      <c r="M71" s="6"/>
+      <c r="O71" s="6">
+        <v>1</v>
+      </c>
+      <c r="P71" s="6"/>
+      <c r="Q71" s="6"/>
+      <c r="R71" s="8"/>
+    </row>
+    <row r="72" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C72" s="5"/>
+      <c r="D72" s="6"/>
+      <c r="E72" s="6"/>
+      <c r="F72" s="6"/>
+      <c r="G72" s="6"/>
+      <c r="H72" s="6"/>
+      <c r="I72" s="6">
+        <v>1</v>
+      </c>
+      <c r="J72" s="6">
+        <v>1</v>
+      </c>
+      <c r="K72" s="6">
+        <v>1</v>
+      </c>
+      <c r="L72" s="6">
+        <v>1</v>
+      </c>
+      <c r="M72" s="16">
+        <v>1</v>
+      </c>
+      <c r="N72" s="16">
+        <v>1</v>
+      </c>
+      <c r="O72" s="6"/>
+      <c r="P72" s="6"/>
+      <c r="Q72" s="6"/>
+      <c r="R72" s="8"/>
+    </row>
+    <row r="73" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C73" s="9"/>
+      <c r="D73" s="10"/>
+      <c r="E73" s="10"/>
+      <c r="F73" s="10"/>
+      <c r="G73" s="10"/>
+      <c r="H73" s="10"/>
+      <c r="I73" s="10"/>
+      <c r="J73" s="10"/>
+      <c r="K73" s="10"/>
+      <c r="L73" s="10"/>
+      <c r="M73" s="10"/>
+      <c r="N73" s="10"/>
+      <c r="O73" s="10"/>
+      <c r="P73" s="10"/>
+      <c r="Q73" s="10"/>
+      <c r="R73" s="11"/>
+    </row>
+    <row r="74" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C74" s="28" t="str">
+        <f>DEC2HEX(C58+2*C59+4*C60+8*C61+16*C62+32*C63+64*C64+128*C65,2)</f>
+        <v>00</v>
+      </c>
+      <c r="D74" s="28" t="str">
+        <f t="shared" ref="D74:Q74" si="6">DEC2HEX(D58+2*D59+4*D60+8*D61+16*D62+32*D63+64*D64+128*D65,2)</f>
+        <v>1C</v>
+      </c>
+      <c r="E74" s="28" t="str">
+        <f t="shared" si="6"/>
+        <v>22</v>
+      </c>
+      <c r="F74" s="28" t="str">
+        <f t="shared" si="6"/>
+        <v>22</v>
+      </c>
+      <c r="G74" s="28" t="str">
+        <f t="shared" si="6"/>
+        <v>1C</v>
+      </c>
+      <c r="H74" s="28" t="str">
+        <f>DEC2HEX(H58+2*H59+4*H60+8*H61+16*H62+32*H63+64*H64+128*H65,2)</f>
+        <v>00</v>
+      </c>
+      <c r="I74" s="28" t="str">
+        <f>DEC2HEX(I58+2*I59+4*I60+8*I61+16*I62+32*I63+64*I64+128*I65,2)</f>
+        <v>80</v>
+      </c>
+      <c r="J74" s="28" t="str">
+        <f>DEC2HEX(J58+2*J59+4*J60+8*J61+16*J62+32*J63+64*J64+128*J65,2)</f>
+        <v>80</v>
+      </c>
+      <c r="K74" s="28" t="str">
+        <f>DEC2HEX(K58+2*K59+4*K60+8*K61+16*K62+32*K63+64*K64+128*K65,2)</f>
+        <v>80</v>
+      </c>
+      <c r="L74" s="28" t="str">
+        <f>DEC2HEX(L58+2*L59+4*L60+8*L61+16*L62+32*L63+64*L64+128*L65,2)</f>
+        <v>80</v>
+      </c>
+      <c r="M74" s="28" t="str">
+        <f>DEC2HEX(M58+2*M59+4*M60+8*M61+16*M62+32*M63+64*M64+128*M65,2)</f>
+        <v>80</v>
+      </c>
+      <c r="N74" s="28" t="str">
+        <f t="shared" si="6"/>
+        <v>80</v>
+      </c>
+      <c r="O74" s="28" t="str">
+        <f t="shared" si="6"/>
+        <v>00</v>
+      </c>
+      <c r="P74" s="28" t="str">
+        <f t="shared" si="6"/>
+        <v>00</v>
+      </c>
+      <c r="Q74" s="28" t="str">
+        <f t="shared" si="6"/>
+        <v>00</v>
+      </c>
+      <c r="R74" s="28" t="str">
+        <f>DEC2HEX(R58+2*R59+4*R60+8*R61+16*R62+32*R63+64*R64+128*R65,2)</f>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="75" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C75" s="28" t="str">
+        <f>DEC2HEX(C66+2*C67+4*C68+8*C69+16*C70+32*C71+64*C72+128*C73,2)</f>
+        <v>00</v>
+      </c>
+      <c r="D75" s="28" t="str">
+        <f t="shared" ref="D75:R75" si="7">DEC2HEX(D66+2*D67+4*D68+8*D69+16*D70+32*D71+64*D72+128*D73,2)</f>
+        <v>00</v>
+      </c>
+      <c r="E75" s="28" t="str">
+        <f t="shared" si="7"/>
+        <v>00</v>
+      </c>
+      <c r="F75" s="28" t="str">
+        <f t="shared" si="7"/>
+        <v>00</v>
+      </c>
+      <c r="G75" s="28" t="str">
+        <f t="shared" si="7"/>
+        <v>00</v>
+      </c>
+      <c r="H75" s="28" t="str">
+        <f>DEC2HEX(H66+2*H67+4*H68+8*H69+16*H70+32*H71+64*H72+128*H73,2)</f>
+        <v>3F</v>
+      </c>
+      <c r="I75" s="28" t="str">
+        <f>DEC2HEX(I66+2*I67+4*I68+8*I69+16*I70+32*I71+64*I72+128*I73,2)</f>
+        <v>40</v>
+      </c>
+      <c r="J75" s="28" t="str">
+        <f>DEC2HEX(J66+2*J67+4*J68+8*J69+16*J70+32*J71+64*J72+128*J73,2)</f>
+        <v>40</v>
+      </c>
+      <c r="K75" s="28" t="str">
+        <f>DEC2HEX(K66+2*K67+4*K68+8*K69+16*K70+32*K71+64*K72+128*K73,2)</f>
+        <v>40</v>
+      </c>
+      <c r="L75" s="28" t="str">
+        <f>DEC2HEX(L66+2*L67+4*L68+8*L69+16*L70+32*L71+64*L72+128*L73,2)</f>
+        <v>40</v>
+      </c>
+      <c r="M75" s="28" t="str">
+        <f>DEC2HEX(M66+2*M67+4*M68+8*M69+16*M70+32*M71+64*M72+128*M73,2)</f>
+        <v>40</v>
+      </c>
+      <c r="N75" s="28" t="str">
+        <f t="shared" si="7"/>
+        <v>40</v>
+      </c>
+      <c r="O75" s="28" t="str">
+        <f t="shared" si="7"/>
+        <v>21</v>
+      </c>
+      <c r="P75" s="28" t="str">
+        <f t="shared" si="7"/>
+        <v>00</v>
+      </c>
+      <c r="Q75" s="28" t="str">
+        <f t="shared" si="7"/>
+        <v>00</v>
+      </c>
+      <c r="R75" s="28" t="str">
+        <f t="shared" si="7"/>
+        <v>00</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="C39:R54">
+  <conditionalFormatting sqref="C39:R54 O66:R72 H66:M72 N72">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C58:R65 C73:R73 C66:G72">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
